--- a/Outputs/WY/Results.xlsx
+++ b/Outputs/WY/Results.xlsx
@@ -1,89 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toby_lowton\Documents\ERF_Project\Outputs\WY\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08930F09-021A-41AD-838B-CDCCAF78220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22560" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$21</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Specialty</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>RelEffectAvgPercent</t>
-  </si>
-  <si>
-    <t>CI_Lower</t>
-  </si>
-  <si>
-    <t>CI_Upper</t>
-  </si>
-  <si>
-    <t>SS_Flag</t>
-  </si>
-  <si>
-    <t>Avg_Total_AP_Pre</t>
-  </si>
-  <si>
-    <t>Avg_Total_AP_Post</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>Seen_within_18_weeks</t>
-  </si>
-  <si>
-    <t>Seen_19_to_40_weeks</t>
-  </si>
-  <si>
-    <t>Seen_41_to_51_weeks</t>
-  </si>
-  <si>
-    <t>Seen_52_to_64_weeks</t>
-  </si>
-  <si>
-    <t>Seen_after_64_weeks</t>
-  </si>
-  <si>
-    <t>Surgical</t>
-  </si>
-  <si>
-    <t>NAP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelEffectAvgPercent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI_Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI_Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS_Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg_Total_AP_Pre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg_Total_AP_Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seen_within_18_weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seen_19_to_40_weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seen_41_to_51_weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seen_52_to_64_weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seen_after_64_weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,15 +109,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -409,20 +390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -461,26 +436,26 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>-0.65659414275105599</v>
-      </c>
-      <c r="E2">
-        <v>-7.0118800823006797</v>
-      </c>
-      <c r="F2">
-        <v>6.1433729616141104</v>
-      </c>
-      <c r="G2">
+      <c r="D2" t="n">
+        <v>-0.634571743841126</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-6.89955769228011</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.31429715638182</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>1572.84210526316</v>
       </c>
-      <c r="I2">
-        <v>1534.1666666666699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I2" t="n">
+        <v>1534.16666666667</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -490,26 +465,26 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>-11.522775714931701</v>
-      </c>
-      <c r="E3">
-        <v>-27.154466962987101</v>
-      </c>
-      <c r="F3">
-        <v>8.2229774644826303</v>
-      </c>
-      <c r="G3">
+      <c r="D3" t="n">
+        <v>-11.6326171443048</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-26.3956588080779</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.8466516132712</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>271.78947368421098</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="n">
+        <v>271.789473684211</v>
+      </c>
+      <c r="I3" t="n">
         <v>236.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -519,26 +494,26 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>-11.5781111855646</v>
-      </c>
-      <c r="E4">
-        <v>-25.3941386232922</v>
-      </c>
-      <c r="F4">
-        <v>9.0966627753369398</v>
-      </c>
-      <c r="G4">
+      <c r="D4" t="n">
+        <v>-11.878228791999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-25.1742724200863</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.55360274092828</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>67.105263157894697</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="n">
+        <v>67.1052631578947</v>
+      </c>
+      <c r="I4" t="n">
         <v>64.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -548,26 +523,26 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>-13.5257978047725</v>
-      </c>
-      <c r="E5">
-        <v>-35.925647568991501</v>
-      </c>
-      <c r="F5">
-        <v>25.6761258091157</v>
-      </c>
-      <c r="G5">
+      <c r="D5" t="n">
+        <v>-13.6992056131681</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-36.3308687298679</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.0810271482947</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>50.842105263157897</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="n">
+        <v>50.8421052631579</v>
+      </c>
+      <c r="I5" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -577,26 +552,26 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>-45.582320020275802</v>
-      </c>
-      <c r="E6">
-        <v>-54.238746034347997</v>
-      </c>
-      <c r="F6">
-        <v>-32.669257167579403</v>
-      </c>
-      <c r="G6">
+      <c r="D6" t="n">
+        <v>-45.3674498379461</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-55.4288568794327</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-31.1172705492752</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>67.263157894736807</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="n">
+        <v>67.2631578947368</v>
+      </c>
+      <c r="I6" t="n">
         <v>40.6666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -606,26 +581,26 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>13.100409724947699</v>
-      </c>
-      <c r="E7">
-        <v>1.9054974317201701</v>
-      </c>
-      <c r="F7">
-        <v>26.040797904188899</v>
-      </c>
-      <c r="G7">
+      <c r="D7" t="n">
+        <v>12.9460632445514</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.83706219631042</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27.961155665519</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>3171.4210526315801</v>
-      </c>
-      <c r="I7">
-        <v>3555.3333333333298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" t="n">
+        <v>3171.42105263158</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3555.33333333333</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -633,28 +608,28 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>36.001106590373197</v>
-      </c>
-      <c r="E8">
-        <v>2.3533178911969799</v>
-      </c>
-      <c r="F8">
-        <v>93.116565882628294</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>322.26315789473699</v>
-      </c>
-      <c r="I8">
-        <v>439.66666666666703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.83012425585809</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-4.65886107605062</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28.8412377121439</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1118.15789473684</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1199.83333333333</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -662,86 +637,86 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>-22.346144011654001</v>
-      </c>
-      <c r="E9">
-        <v>-33.161250619420699</v>
-      </c>
-      <c r="F9">
-        <v>-7.5612848655962299</v>
-      </c>
-      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.6085858857582</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.83000659333597</v>
+      </c>
+      <c r="F9" t="n">
+        <v>88.265312934087</v>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>323.84210526315798</v>
-      </c>
-      <c r="I9">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="n">
+        <v>322.263157894737</v>
+      </c>
+      <c r="I9" t="n">
+        <v>439.666666666667</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>14.2625514038572</v>
-      </c>
-      <c r="E10">
-        <v>1.05850644560073</v>
-      </c>
-      <c r="F10">
-        <v>31.532708099073599</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2254.1578947368398</v>
-      </c>
-      <c r="I10">
-        <v>2559.1666666666702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29.0819195352058</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.84390981975938</v>
+      </c>
+      <c r="F10" t="n">
+        <v>75.2410027747163</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>266.157894736842</v>
+      </c>
+      <c r="I10" t="n">
+        <v>324.5</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>54.686248152486002</v>
-      </c>
-      <c r="E11">
-        <v>22.939813741572198</v>
-      </c>
-      <c r="F11">
-        <v>103.233366861641</v>
-      </c>
-      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-22.752259021006</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-34.364357409868</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.96374885327508</v>
+      </c>
+      <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>479.42105263157902</v>
-      </c>
-      <c r="I11">
-        <v>709.33333333333303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="n">
+        <v>323.842105263158</v>
+      </c>
+      <c r="I11" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -751,26 +726,26 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>1.78086181178133</v>
-      </c>
-      <c r="E12">
-        <v>-4.3134936770074601</v>
-      </c>
-      <c r="F12">
-        <v>7.8277978381873199</v>
-      </c>
-      <c r="G12">
+      <c r="D12" t="n">
+        <v>1.72879236219983</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4.04380842808095</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.01691474887901</v>
+      </c>
+      <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>8641.3157894736905</v>
-      </c>
-      <c r="I12">
-        <v>8830.6666666666697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="n">
+        <v>8641.31578947369</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8830.66666666667</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -780,26 +755,26 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>7.5931631346251196</v>
-      </c>
-      <c r="E13">
-        <v>-8.68102302308289</v>
-      </c>
-      <c r="F13">
-        <v>27.882460941076101</v>
-      </c>
-      <c r="G13">
+      <c r="D13" t="n">
+        <v>7.18738500644974</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-10.2563553073949</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26.6892608985865</v>
+      </c>
+      <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>2220.5263157894701</v>
-      </c>
-      <c r="I13">
-        <v>2205.8333333333298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="n">
+        <v>2220.52631578947</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2205.83333333333</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -809,26 +784,26 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>62.059143462868498</v>
-      </c>
-      <c r="E14">
-        <v>6.89949364439072</v>
-      </c>
-      <c r="F14">
-        <v>163.11828929925301</v>
-      </c>
-      <c r="G14">
+      <c r="D14" t="n">
+        <v>64.359884180366</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.01521178802268</v>
+      </c>
+      <c r="F14" t="n">
+        <v>171.718813969175</v>
+      </c>
+      <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14">
-        <v>375.31578947368399</v>
-      </c>
-      <c r="I14">
+      <c r="H14" t="n">
+        <v>375.315789473684</v>
+      </c>
+      <c r="I14" t="n">
         <v>585.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -838,26 +813,26 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>105.336898674994</v>
-      </c>
-      <c r="E15">
-        <v>23.2883850285553</v>
-      </c>
-      <c r="F15">
-        <v>304.09388558634299</v>
-      </c>
-      <c r="G15">
+      <c r="D15" t="n">
+        <v>109.461084942359</v>
+      </c>
+      <c r="E15" t="n">
+        <v>18.7921718052805</v>
+      </c>
+      <c r="F15" t="n">
+        <v>311.342216166098</v>
+      </c>
+      <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>193.73684210526301</v>
-      </c>
-      <c r="I15">
-        <v>337.66666666666703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="n">
+        <v>193.736842105263</v>
+      </c>
+      <c r="I15" t="n">
+        <v>337.666666666667</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -867,26 +842,26 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>97.375602368388897</v>
-      </c>
-      <c r="E16">
-        <v>25.546842106468802</v>
-      </c>
-      <c r="F16">
-        <v>249.45209514097701</v>
-      </c>
-      <c r="G16">
+      <c r="D16" t="n">
+        <v>96.0282427799108</v>
+      </c>
+      <c r="E16" t="n">
+        <v>31.3882622666565</v>
+      </c>
+      <c r="F16" t="n">
+        <v>231.306803192836</v>
+      </c>
+      <c r="G16" t="n">
         <v>1</v>
       </c>
-      <c r="H16">
-        <v>80.052631578947398</v>
-      </c>
-      <c r="I16">
+      <c r="H16" t="n">
+        <v>80.0526315789474</v>
+      </c>
+      <c r="I16" t="n">
         <v>145.833333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -894,30 +869,30 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>-39.575825417955599</v>
-      </c>
-      <c r="E17">
-        <v>-48.511678780043503</v>
-      </c>
-      <c r="F17">
-        <v>-27.8750140757924</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>287.57894736842098</v>
-      </c>
-      <c r="I17">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.88202479547351</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.06378557415534</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.82851550609846</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9147.52631578947</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9380</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -925,55 +900,55 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>9.9887015543709907</v>
-      </c>
-      <c r="E18">
-        <v>-5.4465352351234397</v>
-      </c>
-      <c r="F18">
-        <v>28.946166974049198</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1118.15789473684</v>
-      </c>
-      <c r="I18">
-        <v>1199.8333333333301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18" t="n">
+        <v>14.4617030721867</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.80682614877468</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33.2700634848472</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2254.15789473684</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2559.16666666667</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>29.342076094820602</v>
-      </c>
-      <c r="E19">
-        <v>-2.5391487987021399</v>
-      </c>
-      <c r="F19">
-        <v>78.233642792781296</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>266.15789473684202</v>
-      </c>
-      <c r="I19">
-        <v>324.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D19" t="n">
+        <v>53.8895366420605</v>
+      </c>
+      <c r="E19" t="n">
+        <v>22.8956730987238</v>
+      </c>
+      <c r="F19" t="n">
+        <v>102.252081281219</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>479.421052631579</v>
+      </c>
+      <c r="I19" t="n">
+        <v>709.333333333333</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -981,28 +956,28 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>2.8096911973025098</v>
-      </c>
-      <c r="E20">
-        <v>-1.2158384686157899</v>
-      </c>
-      <c r="F20">
-        <v>6.5586785894827697</v>
-      </c>
-      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>31.1455490079015</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-4.9335024244625</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100.829414994833</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>9147.5263157894697</v>
-      </c>
-      <c r="I20">
-        <v>9380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="n">
+        <v>284.105263157895</v>
+      </c>
+      <c r="I20" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1010,39 +985,29 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>30.1316949907131</v>
-      </c>
-      <c r="E21">
-        <v>-6.8007372621798501</v>
-      </c>
-      <c r="F21">
-        <v>87.026904614918195</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>284.10526315789502</v>
-      </c>
-      <c r="I21">
-        <v>344</v>
+        <v>15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-39.6288120312716</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-48.263826304601</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-27.7205680786646</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>287.578947368421</v>
+      </c>
+      <c r="I21" t="n">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I21" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Surgical"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:I21">
-    <sortCondition descending="1" ref="G7:G21"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Outputs/WY/Results.xlsx
+++ b/Outputs/WY/Results.xlsx
@@ -437,16 +437,16 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.634571743841126</v>
+        <v>4.55194436134888</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.89955769228011</v>
+        <v>0.0563609197510995</v>
       </c>
       <c r="F2" t="n">
-        <v>6.31429715638182</v>
+        <v>9.45954957352126</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1572.84210526316</v>
@@ -466,13 +466,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.6326171443048</v>
+        <v>-1.648950251367</v>
       </c>
       <c r="E3" t="n">
-        <v>-26.3956588080779</v>
+        <v>-13.5052864425289</v>
       </c>
       <c r="F3" t="n">
-        <v>10.8466516132712</v>
+        <v>11.2187000547253</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>-11.878228791999</v>
+        <v>-6.97982475932386</v>
       </c>
       <c r="E4" t="n">
-        <v>-25.1742724200863</v>
+        <v>-16.6459358443617</v>
       </c>
       <c r="F4" t="n">
-        <v>6.55360274092828</v>
+        <v>4.74889646073614</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -524,13 +524,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>-13.6992056131681</v>
+        <v>-1.44699984262765</v>
       </c>
       <c r="E5" t="n">
-        <v>-36.3308687298679</v>
+        <v>-19.6318810745464</v>
       </c>
       <c r="F5" t="n">
-        <v>25.0810271482947</v>
+        <v>21.0400122736455</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>-45.3674498379461</v>
+        <v>-45.9166131821395</v>
       </c>
       <c r="E6" t="n">
-        <v>-55.4288568794327</v>
+        <v>-52.1196125977235</v>
       </c>
       <c r="F6" t="n">
-        <v>-31.1172705492752</v>
+        <v>-38.2501219701516</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -582,13 +582,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>12.9460632445514</v>
+        <v>20.3167387785498</v>
       </c>
       <c r="E7" t="n">
-        <v>1.83706219631042</v>
+        <v>13.2842041030328</v>
       </c>
       <c r="F7" t="n">
-        <v>27.961155665519</v>
+        <v>28.686158084496</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -611,16 +611,16 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>9.83012425585809</v>
+        <v>21.3210454396107</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.65886107605062</v>
+        <v>12.0020624217291</v>
       </c>
       <c r="F8" t="n">
-        <v>28.8412377121439</v>
+        <v>31.4976304702006</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1118.15789473684</v>
@@ -640,13 +640,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>35.6085858857582</v>
+        <v>57.6830514671484</v>
       </c>
       <c r="E9" t="n">
-        <v>2.83000659333597</v>
+        <v>31.8625096642734</v>
       </c>
       <c r="F9" t="n">
-        <v>88.265312934087</v>
+        <v>91.9316233452192</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -669,16 +669,16 @@
         <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>29.0819195352058</v>
+        <v>56.8380396682825</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.84390981975938</v>
+        <v>29.6456058789541</v>
       </c>
       <c r="F10" t="n">
-        <v>75.2410027747163</v>
+        <v>90.2060849455851</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>266.157894736842</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>-22.752259021006</v>
+        <v>-16.5365931509972</v>
       </c>
       <c r="E11" t="n">
-        <v>-34.364357409868</v>
+        <v>-25.1675826809712</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.96374885327508</v>
+        <v>-5.90321396800044</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -727,13 +727,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>1.72879236219983</v>
+        <v>3.39013510432004</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.04380842808095</v>
+        <v>-0.692014453713557</v>
       </c>
       <c r="F12" t="n">
-        <v>8.01691474887901</v>
+        <v>7.89734044144451</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -756,16 +756,16 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>7.18738500644974</v>
+        <v>19.8336351311463</v>
       </c>
       <c r="E13" t="n">
-        <v>-10.2563553073949</v>
+        <v>7.29071820799665</v>
       </c>
       <c r="F13" t="n">
-        <v>26.6892608985865</v>
+        <v>33.9609753181257</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>2220.52631578947</v>
@@ -785,13 +785,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>64.359884180366</v>
+        <v>122.247679917388</v>
       </c>
       <c r="E14" t="n">
-        <v>8.01521178802268</v>
+        <v>65.5287541530487</v>
       </c>
       <c r="F14" t="n">
-        <v>171.718813969175</v>
+        <v>223.377357672785</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -814,13 +814,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>109.461084942359</v>
+        <v>204.413127015303</v>
       </c>
       <c r="E15" t="n">
-        <v>18.7921718052805</v>
+        <v>106.907756757276</v>
       </c>
       <c r="F15" t="n">
-        <v>311.342216166098</v>
+        <v>434.060730444603</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -843,13 +843,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>96.0282427799108</v>
+        <v>147.522904825849</v>
       </c>
       <c r="E16" t="n">
-        <v>31.3882622666565</v>
+        <v>85.0514608735944</v>
       </c>
       <c r="F16" t="n">
-        <v>231.306803192836</v>
+        <v>233.826154721825</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -872,16 +872,16 @@
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>2.88202479547351</v>
+        <v>3.98639749452161</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.06378557415534</v>
+        <v>0.69864422689744</v>
       </c>
       <c r="F17" t="n">
-        <v>6.82851550609846</v>
+        <v>7.54413189225096</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>9147.52631578947</v>
@@ -901,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>14.4617030721867</v>
+        <v>21.785328233901</v>
       </c>
       <c r="E18" t="n">
-        <v>0.80682614877468</v>
+        <v>13.516708171832</v>
       </c>
       <c r="F18" t="n">
-        <v>33.2700634848472</v>
+        <v>31.8467795250282</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -930,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>53.8895366420605</v>
+        <v>76.0688266715239</v>
       </c>
       <c r="E19" t="n">
-        <v>22.8956730987238</v>
+        <v>52.254380206788</v>
       </c>
       <c r="F19" t="n">
-        <v>102.252081281219</v>
+        <v>104.80959814208</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -959,16 +959,16 @@
         <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>31.1455490079015</v>
+        <v>67.285325009361</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.9335024244625</v>
+        <v>30.5152582497989</v>
       </c>
       <c r="F20" t="n">
-        <v>100.829414994833</v>
+        <v>116.452643513778</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>284.105263157895</v>
@@ -988,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>-39.6288120312716</v>
+        <v>-43.3778103466629</v>
       </c>
       <c r="E21" t="n">
-        <v>-48.263826304601</v>
+        <v>-48.7866056217417</v>
       </c>
       <c r="F21" t="n">
-        <v>-27.7205680786646</v>
+        <v>-37.3549402776375</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>

--- a/Outputs/WY/Results.xlsx
+++ b/Outputs/WY/Results.xlsx
@@ -437,13 +437,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>4.55194436134888</v>
+        <v>4.44639156119888</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0563609197510995</v>
+        <v>0.0761924489145183</v>
       </c>
       <c r="F2" t="n">
-        <v>9.45954957352126</v>
+        <v>8.96780899395303</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -466,13 +466,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.648950251367</v>
+        <v>-1.86516394141668</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.5052864425289</v>
+        <v>-13.2224611827265</v>
       </c>
       <c r="F3" t="n">
-        <v>11.2187000547253</v>
+        <v>12.1858145640159</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.97982475932386</v>
+        <v>-6.68901794185942</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.6459358443617</v>
+        <v>-15.7954745928014</v>
       </c>
       <c r="F4" t="n">
-        <v>4.74889646073614</v>
+        <v>4.27847252222769</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -524,13 +524,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.44699984262765</v>
+        <v>-1.41548574072862</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.6318810745464</v>
+        <v>-18.50287152233</v>
       </c>
       <c r="F5" t="n">
-        <v>21.0400122736455</v>
+        <v>21.6222072025779</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>-45.9166131821395</v>
+        <v>-46.0478700391514</v>
       </c>
       <c r="E6" t="n">
-        <v>-52.1196125977235</v>
+        <v>-52.3867737756833</v>
       </c>
       <c r="F6" t="n">
-        <v>-38.2501219701516</v>
+        <v>-38.2439332124747</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -582,13 +582,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>20.3167387785498</v>
+        <v>20.3184764543881</v>
       </c>
       <c r="E7" t="n">
-        <v>13.2842041030328</v>
+        <v>13.3678609917057</v>
       </c>
       <c r="F7" t="n">
-        <v>28.686158084496</v>
+        <v>28.0738401819582</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -611,13 +611,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>21.3210454396107</v>
+        <v>21.3665435504278</v>
       </c>
       <c r="E8" t="n">
-        <v>12.0020624217291</v>
+        <v>11.7030444434211</v>
       </c>
       <c r="F8" t="n">
-        <v>31.4976304702006</v>
+        <v>32.4320452360681</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -640,13 +640,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>57.6830514671484</v>
+        <v>58.3085560463384</v>
       </c>
       <c r="E9" t="n">
-        <v>31.8625096642734</v>
+        <v>31.879499682191</v>
       </c>
       <c r="F9" t="n">
-        <v>91.9316233452192</v>
+        <v>92.7027863266992</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -669,13 +669,13 @@
         <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>56.8380396682825</v>
+        <v>56.0790369227965</v>
       </c>
       <c r="E10" t="n">
-        <v>29.6456058789541</v>
+        <v>29.1024353677409</v>
       </c>
       <c r="F10" t="n">
-        <v>90.2060849455851</v>
+        <v>89.4324283429678</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>-16.5365931509972</v>
+        <v>-16.7507244450744</v>
       </c>
       <c r="E11" t="n">
-        <v>-25.1675826809712</v>
+        <v>-25.5953670402394</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.90321396800044</v>
+        <v>-6.91032298469087</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -727,13 +727,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>3.39013510432004</v>
+        <v>3.46560385189091</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.692014453713557</v>
+        <v>-0.788958373958267</v>
       </c>
       <c r="F12" t="n">
-        <v>7.89734044144451</v>
+        <v>7.99332981257991</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>19.8336351311463</v>
+        <v>19.8519255937185</v>
       </c>
       <c r="E13" t="n">
-        <v>7.29071820799665</v>
+        <v>6.96088992711155</v>
       </c>
       <c r="F13" t="n">
-        <v>33.9609753181257</v>
+        <v>34.8723485490505</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -785,13 +785,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>122.247679917388</v>
+        <v>121.366351155699</v>
       </c>
       <c r="E14" t="n">
-        <v>65.5287541530487</v>
+        <v>62.3007149282717</v>
       </c>
       <c r="F14" t="n">
-        <v>223.377357672785</v>
+        <v>218.09263915608</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -814,13 +814,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>204.413127015303</v>
+        <v>200.722797698643</v>
       </c>
       <c r="E15" t="n">
-        <v>106.907756757276</v>
+        <v>104.674543316441</v>
       </c>
       <c r="F15" t="n">
-        <v>434.060730444603</v>
+        <v>412.555646794438</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -843,13 +843,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>147.522904825849</v>
+        <v>147.573628946911</v>
       </c>
       <c r="E16" t="n">
-        <v>85.0514608735944</v>
+        <v>87.0798799347481</v>
       </c>
       <c r="F16" t="n">
-        <v>233.826154721825</v>
+        <v>233.069670404704</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -872,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>3.98639749452161</v>
+        <v>4.02986896349452</v>
       </c>
       <c r="E17" t="n">
-        <v>0.69864422689744</v>
+        <v>0.911993207208108</v>
       </c>
       <c r="F17" t="n">
-        <v>7.54413189225096</v>
+        <v>7.57834103758783</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -901,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>21.785328233901</v>
+        <v>21.963526903103</v>
       </c>
       <c r="E18" t="n">
-        <v>13.516708171832</v>
+        <v>12.8331585417013</v>
       </c>
       <c r="F18" t="n">
-        <v>31.8467795250282</v>
+        <v>31.3956220592159</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -930,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>76.0688266715239</v>
+        <v>76.12957440222</v>
       </c>
       <c r="E19" t="n">
-        <v>52.254380206788</v>
+        <v>53.5823162808539</v>
       </c>
       <c r="F19" t="n">
-        <v>104.80959814208</v>
+        <v>105.083739896449</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -959,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>67.285325009361</v>
+        <v>67.0693481217225</v>
       </c>
       <c r="E20" t="n">
-        <v>30.5152582497989</v>
+        <v>31.6880029015119</v>
       </c>
       <c r="F20" t="n">
-        <v>116.452643513778</v>
+        <v>119.144091419085</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -988,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>-43.3778103466629</v>
+        <v>-43.5184735099785</v>
       </c>
       <c r="E21" t="n">
-        <v>-48.7866056217417</v>
+        <v>-49.0181133405591</v>
       </c>
       <c r="F21" t="n">
-        <v>-37.3549402776375</v>
+        <v>-36.8618504623877</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
